--- a/notebooks/CDK10/input/CDK10_ALKAS_individuals.xlsx
+++ b/notebooks/CDK10/input/CDK10_ALKAS_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/CDK10/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3E115A-B9DD-E846-8473-7D81C0110638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63AF62B-719A-8746-A360-FDA86AE687FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7280" windowWidth="34600" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="6360" windowWidth="34600" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,9 +362,6 @@
     <t>c.609-1G&gt;A</t>
   </si>
   <si>
-    <t>arr 16q24.3 DEL89,754,790 −89,757,400</t>
-  </si>
-  <si>
     <t>c.139del</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>DEL: arr 16q24.3 DEL89,754,790 −89,757,400</t>
   </si>
 </sst>
 </file>
@@ -600,18 +600,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,10 +918,14 @@
   <dimension ref="A1:BO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1001,16 +1004,16 @@
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>25</v>
@@ -1040,7 +1043,7 @@
         <v>34</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>35</v>
@@ -1049,7 +1052,7 @@
         <v>36</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>37</v>
@@ -1064,7 +1067,7 @@
         <v>40</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>41</v>
@@ -1085,7 +1088,7 @@
         <v>46</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>47</v>
@@ -1094,37 +1097,37 @@
         <v>48</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BI1" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BJ1" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BL1" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BM1" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BN1" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BO1" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
@@ -1204,16 +1207,16 @@
         <v>68</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>70</v>
@@ -1243,7 +1246,7 @@
         <v>79</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>80</v>
@@ -1252,7 +1255,7 @@
         <v>81</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>82</v>
@@ -1267,7 +1270,7 @@
         <v>85</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AV2" s="2" t="s">
         <v>86</v>
@@ -1288,7 +1291,7 @@
         <v>91</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BC2" s="2" t="s">
         <v>92</v>
@@ -1297,37 +1300,37 @@
         <v>93</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="BI2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BJ2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BK2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BL2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BM2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BN2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BO2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
@@ -1364,13 +1367,13 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>106</v>
@@ -1379,146 +1382,146 @@
         <v>61</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BB3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BF3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BJ3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
@@ -1555,13 +1558,13 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>106</v>
@@ -1570,146 +1573,146 @@
         <v>61</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BB4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC4" s="2"/>
       <c r="BD4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BJ4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.2">
@@ -1739,20 +1742,20 @@
         <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>106</v>
@@ -1760,147 +1763,147 @@
       <c r="Q5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>122</v>
+      <c r="R5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV5" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BB5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC5" s="2"/>
       <c r="BD5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BK5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
@@ -1930,20 +1933,20 @@
         <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>106</v>
@@ -1951,147 +1954,147 @@
       <c r="Q6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>127</v>
+      <c r="R6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AU6" s="6" t="s">
+      <c r="AU6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AV6" s="6" t="s">
-        <v>127</v>
+      <c r="AV6" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BB6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BF6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BK6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
@@ -2121,22 +2124,22 @@
         <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="M7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>107</v>
@@ -2144,147 +2147,147 @@
       <c r="Q7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>127</v>
+      <c r="R7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM7" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AU7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV7" s="6" t="s">
-        <v>127</v>
+      <c r="AU7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC7" s="2"/>
       <c r="BD7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BM7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
@@ -2314,20 +2317,20 @@
         <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>106</v>
@@ -2335,147 +2338,147 @@
       <c r="Q8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>122</v>
+      <c r="R8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV8" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE8" s="5" t="s">
         <v>61</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BG8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BH8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BI8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BL8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BN8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.2">
@@ -2505,20 +2508,20 @@
         <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>107</v>
@@ -2526,147 +2529,147 @@
       <c r="Q9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>127</v>
+      <c r="R9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM9" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV9" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC9" s="2"/>
       <c r="BD9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BE9" s="5" t="s">
         <v>61</v>
       </c>
       <c r="BF9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BG9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BH9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BL9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BN9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
@@ -2696,20 +2699,20 @@
         <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>106</v>
@@ -2717,147 +2720,147 @@
       <c r="Q10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>127</v>
+      <c r="R10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV10" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC10" s="2"/>
       <c r="BD10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BI10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BK10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BL10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
@@ -2887,20 +2890,20 @@
         <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>106</v>
@@ -2908,147 +2911,147 @@
       <c r="Q11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>122</v>
+      <c r="R11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM11" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU11" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AW11" s="2"/>
       <c r="AX11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC11" s="2"/>
       <c r="BD11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE11" s="5" t="s">
         <v>61</v>
       </c>
       <c r="BF11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BG11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BO11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/CDK10/input/CDK10_ALKAS_individuals.xlsx
+++ b/notebooks/CDK10/input/CDK10_ALKAS_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/CDK10/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63AF62B-719A-8746-A360-FDA86AE687FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3E115A-B9DD-E846-8473-7D81C0110638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="6360" windowWidth="34600" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7280" windowWidth="34600" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,6 +362,9 @@
     <t>c.609-1G&gt;A</t>
   </si>
   <si>
+    <t>arr 16q24.3 DEL89,754,790 −89,757,400</t>
+  </si>
+  <si>
     <t>c.139del</t>
   </si>
   <si>
@@ -510,9 +513,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>DEL: arr 16q24.3 DEL89,754,790 −89,757,400</t>
   </si>
 </sst>
 </file>
@@ -600,17 +600,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,14 +919,10 @@
   <dimension ref="A1:BO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="O3" sqref="O3:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1004,16 +1001,16 @@
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>25</v>
@@ -1043,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>35</v>
@@ -1052,7 +1049,7 @@
         <v>36</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>37</v>
@@ -1067,7 +1064,7 @@
         <v>40</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>41</v>
@@ -1088,7 +1085,7 @@
         <v>46</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>47</v>
@@ -1097,37 +1094,37 @@
         <v>48</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BI1" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BJ1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BL1" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BM1" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BN1" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BO1" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
@@ -1207,16 +1204,16 @@
         <v>68</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>70</v>
@@ -1246,7 +1243,7 @@
         <v>79</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>80</v>
@@ -1255,7 +1252,7 @@
         <v>81</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>82</v>
@@ -1270,7 +1267,7 @@
         <v>85</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AV2" s="2" t="s">
         <v>86</v>
@@ -1291,7 +1288,7 @@
         <v>91</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BC2" s="2" t="s">
         <v>92</v>
@@ -1300,37 +1297,37 @@
         <v>93</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="BI2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BJ2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BK2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BL2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BM2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BN2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BO2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
@@ -1367,13 +1364,13 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>106</v>
@@ -1382,146 +1379,146 @@
         <v>61</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BA3" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BB3" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BF3" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BG3" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BJ3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BK3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
@@ -1558,13 +1555,13 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>106</v>
@@ -1573,146 +1570,146 @@
         <v>61</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BA4" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BB4" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC4" s="2"/>
       <c r="BD4" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BE4" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BF4" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BG4" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BH4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BJ4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BK4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BM4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.2">
@@ -1742,20 +1739,20 @@
         <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>106</v>
@@ -1763,147 +1760,147 @@
       <c r="Q5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>121</v>
+      <c r="R5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BB5" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC5" s="2"/>
       <c r="BD5" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BE5" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BF5" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BG5" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BK5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BM5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BN5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
@@ -1933,20 +1930,20 @@
         <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>106</v>
@@ -1954,147 +1951,147 @@
       <c r="Q6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>126</v>
+      <c r="R6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="AU6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AV6" s="2" t="s">
-        <v>126</v>
+      <c r="AV6" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BB6" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BF6" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BG6" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BH6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BK6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BM6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BN6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
@@ -2124,22 +2121,22 @@
         <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>107</v>
@@ -2147,147 +2144,147 @@
       <c r="Q7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>126</v>
+      <c r="R7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AU7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>126</v>
+      <c r="AU7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BB7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC7" s="2"/>
       <c r="BD7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BE7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BF7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BG7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BH7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BI7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BK7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BM7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BN7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
@@ -2317,20 +2314,20 @@
         <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>106</v>
@@ -2338,147 +2335,147 @@
       <c r="Q8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>121</v>
+      <c r="R8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV8" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV8" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BE8" s="5" t="s">
         <v>61</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BG8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BH8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BI8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BJ8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BK8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BL8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BM8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BN8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.2">
@@ -2508,20 +2505,20 @@
         <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>107</v>
@@ -2529,147 +2526,147 @@
       <c r="Q9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>126</v>
+      <c r="R9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV9" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AS9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV9" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BB9" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC9" s="2"/>
       <c r="BD9" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BE9" s="5" t="s">
         <v>61</v>
       </c>
       <c r="BF9" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BG9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BH9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BJ9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BK9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BL9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BM9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BN9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BO9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
@@ -2699,20 +2696,20 @@
         <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>106</v>
@@ -2720,147 +2717,147 @@
       <c r="Q10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>126</v>
+      <c r="R10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV10" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AS10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV10" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BB10" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC10" s="2"/>
       <c r="BD10" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BE10" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BF10" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BG10" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BH10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BI10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BJ10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BK10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BL10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BM10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BN10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BO10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
@@ -2890,20 +2887,20 @@
         <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>106</v>
@@ -2911,147 +2908,147 @@
       <c r="Q11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>121</v>
+      <c r="R11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU11" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU11" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AW11" s="2"/>
       <c r="AX11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BB11" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC11" s="2"/>
       <c r="BD11" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BE11" s="5" t="s">
         <v>61</v>
       </c>
       <c r="BF11" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BG11" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BH11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BI11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BJ11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BK11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BM11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BN11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BO11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
